--- a/medicine/Autisme/Donna_Williams/Donna_Williams.xlsx
+++ b/medicine/Autisme/Donna_Williams/Donna_Williams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donna Williams, née le 12 octobre 1963 et morte le 22 avril 2017, est une écrivaine australienne de best-sellers et artiste pluridisciplinaire diagnostiquée autiste.
-Elle révèle également dans son blog avoir été diagnostiquée porteuse de trouble dissociatif de l'identité en 2010 et avoir quinze alters (ou personnalités alternatives), résultant de maltraitances issues de son enfance[1].
-Elle a créé le concept d'anxiété d'exposition (exposure anxiety) qu'elle décrit comme une « auto-protection émotionnelle et sociale involontaire » et une « condition handicapante affectant une grande proportion de personnes sur le spectre de l'autisme »[2].
+Elle révèle également dans son blog avoir été diagnostiquée porteuse de trouble dissociatif de l'identité en 2010 et avoir quinze alters (ou personnalités alternatives), résultant de maltraitances issues de son enfance.
+Elle a créé le concept d'anxiété d'exposition (exposure anxiety) qu'elle décrit comme une « auto-protection émotionnelle et sociale involontaire » et une « condition handicapante affectant une grande proportion de personnes sur le spectre de l'autisme ».
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle meurt le 22 avril 2017 des suites d'un cancer du sein[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle meurt le 22 avril 2017 des suites d'un cancer du sein.
 </t>
         </is>
       </c>
